--- a/Code/Results/Cases/Case_2_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.465572835545231</v>
+        <v>1.359058946454525</v>
       </c>
       <c r="C2">
-        <v>0.5119711486787821</v>
+        <v>0.2396082070310683</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03106191360142674</v>
+        <v>0.08610189442810423</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007919801092272147</v>
+        <v>0.002418976509366153</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1505688966294301</v>
+        <v>0.5353633724865219</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3334428182510862</v>
+        <v>0.2268197972997825</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8146455478709385</v>
+        <v>2.027512517376096</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.014651829379375</v>
+        <v>1.216404908066409</v>
       </c>
       <c r="C3">
-        <v>0.4588164230175664</v>
+        <v>0.2219112585119376</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03165627391680559</v>
+        <v>0.08718609321774728</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007962390734835794</v>
+        <v>0.002421721691165057</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1674032759869277</v>
+        <v>0.5479572496751448</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2927168212256106</v>
+        <v>0.216317066434911</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8213319599584139</v>
+        <v>2.062135403644874</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.738091403645285</v>
+        <v>1.128653607467186</v>
       </c>
       <c r="C4">
-        <v>0.4261852754693507</v>
+        <v>0.2109989776520251</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03211429942961885</v>
+        <v>0.08790745916207143</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007989344559658188</v>
+        <v>0.002423495970071075</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1787913974825326</v>
+        <v>0.5561889617213964</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2679687618887385</v>
+        <v>0.2099696181120549</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8299638847995681</v>
+        <v>2.08541484571542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.625429195633728</v>
+        <v>1.092856019552016</v>
       </c>
       <c r="C5">
-        <v>0.4128855887182397</v>
+        <v>0.2065408226471845</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03232353219520956</v>
+        <v>0.08821541725921644</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008000534993424619</v>
+        <v>0.002424241380730489</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1836845188069898</v>
+        <v>0.5596686720773292</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2579417050689443</v>
+        <v>0.2074085404963597</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.834556816407229</v>
+        <v>2.095408260974494</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.606722961126991</v>
+        <v>1.086909617119602</v>
       </c>
       <c r="C6">
-        <v>0.4106769472027736</v>
+        <v>0.2057998758603219</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03235961574968638</v>
+        <v>0.08826739872519784</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008002405756017733</v>
+        <v>0.002424366509108832</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1845119180183623</v>
+        <v>0.5602540306788164</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2562800285083568</v>
+        <v>0.2069848220051966</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8353826412805603</v>
+        <v>2.09709823434801</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.736571895434963</v>
+        <v>1.128170980363848</v>
       </c>
       <c r="C7">
-        <v>0.4260059250157155</v>
+        <v>0.2109388987798297</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03211703083668471</v>
+        <v>0.0879115557267669</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007989494635098917</v>
+        <v>0.002423505932244739</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.17885638154074</v>
+        <v>0.5562353836463352</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2678333075277237</v>
+        <v>0.2099349749101549</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8300215533242721</v>
+        <v>2.085547569915491</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.310007260053624</v>
+        <v>1.309906609015286</v>
       </c>
       <c r="C8">
-        <v>0.4936397701553688</v>
+        <v>0.2335160945901862</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03124702182848438</v>
+        <v>0.08646417241040361</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007934321968654398</v>
+        <v>0.002419904672989015</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1561476305747931</v>
+        <v>0.5396020137661779</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3193427065324528</v>
+        <v>0.2231774891500322</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.815972702699483</v>
+        <v>2.039030279056448</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.438891207449785</v>
+        <v>1.664928018489206</v>
       </c>
       <c r="C9">
-        <v>0.6265091027070184</v>
+        <v>0.2774105350216587</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03031855998289679</v>
+        <v>0.08406758491183375</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007832290153874553</v>
+        <v>0.00241354357488544</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1205367545467588</v>
+        <v>0.5109547794275127</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4227334625045103</v>
+        <v>0.249947022753517</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8273429707545858</v>
+        <v>1.963902840553331</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.273955237920291</v>
+        <v>1.924847240330166</v>
       </c>
       <c r="C10">
-        <v>0.7245741836913453</v>
+        <v>0.3094154223363716</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.03016775950985995</v>
+        <v>0.08257618378541487</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007760763775727387</v>
+        <v>0.002409293120915472</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1006615366565544</v>
+        <v>0.4923430926032832</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5006515562002676</v>
+        <v>0.2701018426284065</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.863877796278544</v>
+        <v>1.918597152611611</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.655815419416911</v>
+        <v>2.042876517011848</v>
       </c>
       <c r="C11">
-        <v>0.7693576538072762</v>
+        <v>0.3239196902138985</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.03022811089128652</v>
+        <v>0.08195621710470213</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007728894475635717</v>
+        <v>0.002407450427421083</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.09318884662344651</v>
+        <v>0.4844081214156546</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5366456176339653</v>
+        <v>0.2793765254820073</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8876887020205544</v>
+        <v>1.90015112886131</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.800766956245866</v>
+        <v>2.087539152566308</v>
       </c>
       <c r="C12">
-        <v>0.7863475155579351</v>
+        <v>0.3294039066941821</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03027072641254236</v>
+        <v>0.08172986346830236</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007716915758276266</v>
+        <v>0.002406765644078448</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.09060322792426945</v>
+        <v>0.4814800733261748</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5503654799069579</v>
+        <v>0.282903815182209</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8978366685885248</v>
+        <v>1.893478662049588</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769532433850543</v>
+        <v>2.077921737755219</v>
       </c>
       <c r="C13">
-        <v>0.7826869424665404</v>
+        <v>0.3282231541472527</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03026064916154425</v>
+        <v>0.08177823846635235</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007719491720045157</v>
+        <v>0.002406912547089245</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.09114891850503248</v>
+        <v>0.4821072622681264</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5474064918177532</v>
+        <v>0.2821434771315552</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8955991758014648</v>
+        <v>1.8949017685499</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.667733281863775</v>
+        <v>2.046551603697878</v>
       </c>
       <c r="C14">
-        <v>0.7707547530225725</v>
+        <v>0.3243710469701284</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.03023121355408698</v>
+        <v>0.08193742619118005</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007727907225404809</v>
+        <v>0.002407393829699434</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.09297112208373903</v>
+        <v>0.4841656890954003</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5377724964779418</v>
+        <v>0.2796664142757379</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8885003237618463</v>
+        <v>1.899595906635867</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.605425851324696</v>
+        <v>2.02733218897805</v>
       </c>
       <c r="C15">
-        <v>0.7634502240302083</v>
+        <v>0.3220104376885047</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.03021579458980739</v>
+        <v>0.08203602920709052</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007733073416362595</v>
+        <v>0.002407690321016849</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.09411964236375603</v>
+        <v>0.4854365397899194</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5318834118120321</v>
+        <v>0.2781511143079598</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8843024182734922</v>
+        <v>1.902511961299339</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.249045063366566</v>
+        <v>1.917129332885111</v>
       </c>
       <c r="C16">
-        <v>0.7216514996831336</v>
+        <v>0.3084664002792863</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.03016651249492064</v>
+        <v>0.08261787725029812</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000776285940449606</v>
+        <v>0.002409415368364097</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1011830136093419</v>
+        <v>0.492872385107761</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.49831120379433</v>
+        <v>0.2694978481400483</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.862474536686463</v>
+        <v>1.919846312015977</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.030969230399535</v>
+        <v>1.849468135646646</v>
       </c>
       <c r="C17">
-        <v>0.6960580823990199</v>
+        <v>0.3001432649319042</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.03017014787842065</v>
+        <v>0.08298980371629838</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007781298780852319</v>
+        <v>0.002410496856968758</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1059306909279005</v>
+        <v>0.4975704081238401</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4778636889365089</v>
+        <v>0.2642164695275255</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8509924273456448</v>
+        <v>1.931035631526001</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.905720508427066</v>
+        <v>1.810531647619996</v>
       </c>
       <c r="C18">
-        <v>0.6813533063547936</v>
+        <v>0.2953508686472333</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03018429856777161</v>
+        <v>0.08320923002115777</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007791967960893684</v>
+        <v>0.002411127456360584</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1088078853847172</v>
+        <v>0.5003226026930196</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4661537728074876</v>
+        <v>0.2611887576806566</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8450588167849276</v>
+        <v>1.937675006418687</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.863342969608141</v>
+        <v>1.797345136284434</v>
       </c>
       <c r="C19">
-        <v>0.6763770629172257</v>
+        <v>0.2937273716351285</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.03019112524470913</v>
+        <v>0.08328446916646826</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007795591433868968</v>
+        <v>0.002411342437706798</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1098066655429371</v>
+        <v>0.5012630292417999</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.462197433086331</v>
+        <v>0.2601653464878808</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8431621347981775</v>
+        <v>1.939957903111349</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.054164418042944</v>
+        <v>1.856672827104205</v>
       </c>
       <c r="C20">
-        <v>0.6987808570534071</v>
+        <v>0.3010298122596282</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.03016850419171391</v>
+        <v>0.08294964182494802</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007779329368076558</v>
+        <v>0.002410380845580079</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1054100050419127</v>
+        <v>0.4970651168171756</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4800350129183784</v>
+        <v>0.2647776472997663</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.8521446335361276</v>
+        <v>1.929823429335798</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.697624141757785</v>
+        <v>2.055766673227538</v>
       </c>
       <c r="C21">
-        <v>0.7742586216985501</v>
+        <v>0.3255027303941631</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03023931303783911</v>
+        <v>0.08189044049617245</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007725433014043435</v>
+        <v>0.002407252112848638</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.09242911608307125</v>
+        <v>0.483558993684154</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5405997098878714</v>
+        <v>0.2803935767734771</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8905539119987793</v>
+        <v>1.898208627576594</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.120232416519116</v>
+        <v>2.185695540762879</v>
       </c>
       <c r="C22">
-        <v>0.8237737620158327</v>
+        <v>0.3414490431171373</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03040140610903386</v>
+        <v>0.08124723842313308</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007690726831861561</v>
+        <v>0.002405283078438344</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.08537799511206856</v>
+        <v>0.4751794834043128</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5807106885453805</v>
+        <v>0.290687859444489</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9223015249736193</v>
+        <v>1.879369535353533</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.894466425635812</v>
+        <v>2.116368271896647</v>
       </c>
       <c r="C23">
-        <v>0.7973272924651553</v>
+        <v>0.3329427127422377</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03030387141765978</v>
+        <v>0.08158603799594211</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007709205079794492</v>
+        <v>0.002406327075819256</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.08900370712762395</v>
+        <v>0.4796107341222609</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5592505542852564</v>
+        <v>0.2851855527812148</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9047150121615744</v>
+        <v>1.88925701490507</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.043677486073591</v>
+        <v>1.853415701679694</v>
       </c>
       <c r="C24">
-        <v>0.6975498623912983</v>
+        <v>0.3006290269741783</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.03016920982733673</v>
+        <v>0.08296778157041729</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007780219527868825</v>
+        <v>0.002410433266624475</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1056449484907755</v>
+        <v>0.4972933994337918</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4790532160158989</v>
+        <v>0.2645239119636926</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.8516216489289263</v>
+        <v>1.930370822862386</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.132734004061433</v>
+        <v>1.569039970460381</v>
       </c>
       <c r="C25">
-        <v>0.5905094008168703</v>
+        <v>0.2655779075772671</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03048078381167052</v>
+        <v>0.0846686266161143</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007859264605988122</v>
+        <v>0.002415189821875918</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1291312322293745</v>
+        <v>0.5182779927988417</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3944586720119219</v>
+        <v>0.2426195155729971</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8196595471424502</v>
+        <v>1.98249568983141</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_172/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.359058946454525</v>
+        <v>3.465572835545004</v>
       </c>
       <c r="C2">
-        <v>0.2396082070310683</v>
+        <v>0.5119711486787537</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08610189442810423</v>
+        <v>0.03106191360146049</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002418976509366153</v>
+        <v>0.000791980109150917</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5353633724865219</v>
+        <v>0.1505688966294478</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2268197972997825</v>
+        <v>0.3334428182509441</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.027512517376096</v>
+        <v>0.8146455478709242</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.216404908066409</v>
+        <v>3.014651829379261</v>
       </c>
       <c r="C3">
-        <v>0.2219112585119376</v>
+        <v>0.4588164230177085</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08718609321774728</v>
+        <v>0.03165627391681447</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002421721691165057</v>
+        <v>0.0007962390735396499</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5479572496751448</v>
+        <v>0.1674032759869455</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.216317066434911</v>
+        <v>0.2927168212255964</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.062135403644874</v>
+        <v>0.8213319599584139</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.128653607467186</v>
+        <v>2.738091403645285</v>
       </c>
       <c r="C4">
-        <v>0.2109989776520251</v>
+        <v>0.4261852754693791</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08790745916207143</v>
+        <v>0.0321142994295629</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002423495970071075</v>
+        <v>0.0007989344559806585</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5561889617213964</v>
+        <v>0.1787913974825432</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2099696181120549</v>
+        <v>0.2679687618886248</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.08541484571542</v>
+        <v>0.8299638847995539</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.092856019552016</v>
+        <v>2.625429195633728</v>
       </c>
       <c r="C5">
-        <v>0.2065408226471845</v>
+        <v>0.4128855887182397</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08821541725921644</v>
+        <v>0.03232353219519979</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002424241380730489</v>
+        <v>0.0008000534993417391</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5596686720773292</v>
+        <v>0.1836845188069756</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2074085404963597</v>
+        <v>0.2579417050689727</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.095408260974494</v>
+        <v>0.8345568164073001</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.086909617119602</v>
+        <v>2.606722961127105</v>
       </c>
       <c r="C6">
-        <v>0.2057998758603219</v>
+        <v>0.4106769472026031</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08826739872519784</v>
+        <v>0.03235961574968282</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002424366509108832</v>
+        <v>0.0008002405757176076</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5602540306788164</v>
+        <v>0.1845119180183659</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2069848220051966</v>
+        <v>0.2562800285083995</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.09709823434801</v>
+        <v>0.8353826412806455</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.128170980363848</v>
+        <v>2.736571895434793</v>
       </c>
       <c r="C7">
-        <v>0.2109388987798297</v>
+        <v>0.4260059250154598</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0879115557267669</v>
+        <v>0.03211703083665007</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002423505932244739</v>
+        <v>0.0007989494634362327</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5562353836463352</v>
+        <v>0.1788563815407329</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2099349749101549</v>
+        <v>0.2678333075277095</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.085547569915491</v>
+        <v>0.8300215533243289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.309906609015286</v>
+        <v>3.310007260053737</v>
       </c>
       <c r="C8">
-        <v>0.2335160945901862</v>
+        <v>0.4936397701553972</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08646417241040361</v>
+        <v>0.03124702182847194</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002419904672989015</v>
+        <v>0.000793432196881211</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5396020137661779</v>
+        <v>0.1561476305747913</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2231774891500322</v>
+        <v>0.3193427065325238</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.039030279056448</v>
+        <v>0.8159727026993693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.664928018489206</v>
+        <v>4.43889120745024</v>
       </c>
       <c r="C9">
-        <v>0.2774105350216587</v>
+        <v>0.6265091027072174</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08406758491183375</v>
+        <v>0.03031855998289856</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.00241354357488544</v>
+        <v>0.0007832290153869651</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5109547794275127</v>
+        <v>0.1205367545467713</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.249947022753517</v>
+        <v>0.4227334625045387</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.963902840553331</v>
+        <v>0.8273429707545148</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.924847240330166</v>
+        <v>5.273955237920347</v>
       </c>
       <c r="C10">
-        <v>0.3094154223363716</v>
+        <v>0.7245741836913169</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08257618378541487</v>
+        <v>0.03016775950987416</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002409293120915472</v>
+        <v>0.0007760763775727387</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4923430926032832</v>
+        <v>0.1006615366565544</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2701018426284065</v>
+        <v>0.500651556200296</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.918597152611611</v>
+        <v>0.863877796278544</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.042876517011848</v>
+        <v>5.655815419416854</v>
       </c>
       <c r="C11">
-        <v>0.3239196902138985</v>
+        <v>0.7693576538072193</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08195621710470213</v>
+        <v>0.03022811089129007</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002407450427421083</v>
+        <v>0.0007728894475634607</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4844081214156546</v>
+        <v>0.09318884662344473</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2793765254820073</v>
+        <v>0.5366456176339369</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.90015112886131</v>
+        <v>0.8876887020205544</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.087539152566308</v>
+        <v>5.80076695624598</v>
       </c>
       <c r="C12">
-        <v>0.3294039066941821</v>
+        <v>0.7863475155578499</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08172986346830236</v>
+        <v>0.03027072641253525</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002406765644078448</v>
+        <v>0.0007716915758245861</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4814800733261748</v>
+        <v>0.09060322792427122</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.282903815182209</v>
+        <v>0.5503654799069295</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.893478662049588</v>
+        <v>0.8978366685885817</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.077921737755219</v>
+        <v>5.769532433850429</v>
       </c>
       <c r="C13">
-        <v>0.3282231541472527</v>
+        <v>0.7826869424669951</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08177823846635235</v>
+        <v>0.03026064916155491</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002406912547089245</v>
+        <v>0.0007719491720224848</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4821072622681264</v>
+        <v>0.09114891850503248</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2821434771315552</v>
+        <v>0.5474064918177959</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.8949017685499</v>
+        <v>0.8955991758014648</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.046551603697878</v>
+        <v>5.667733281863491</v>
       </c>
       <c r="C14">
-        <v>0.3243710469701284</v>
+        <v>0.7707547530228283</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08193742619118005</v>
+        <v>0.03023121355408165</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002407393829699434</v>
+        <v>0.000772790722520289</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4841656890954003</v>
+        <v>0.09297112208372127</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2796664142757379</v>
+        <v>0.5377724964780555</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.899595906635867</v>
+        <v>0.8885003237617752</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.02733218897805</v>
+        <v>5.605425851324753</v>
       </c>
       <c r="C15">
-        <v>0.3220104376885047</v>
+        <v>0.7634502240302936</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.08203602920709052</v>
+        <v>0.03021579458980561</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002407690321016849</v>
+        <v>0.0007733073416174736</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4854365397899194</v>
+        <v>0.09411964236376669</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2781511143079598</v>
+        <v>0.53188341181189</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.902511961299339</v>
+        <v>0.8843024182734354</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.917129332885111</v>
+        <v>5.249045063366339</v>
       </c>
       <c r="C16">
-        <v>0.3084664002792863</v>
+        <v>0.7216514996831904</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08261787725029812</v>
+        <v>0.03016651249490465</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002409415368364097</v>
+        <v>0.0007762859404483735</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.492872385107761</v>
+        <v>0.1011830136093224</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2694978481400483</v>
+        <v>0.49831120379433</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.919846312015977</v>
+        <v>0.8624745366864346</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.849468135646646</v>
+        <v>5.030969230399876</v>
       </c>
       <c r="C17">
-        <v>0.3001432649319042</v>
+        <v>0.6960580823990199</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08298980371629838</v>
+        <v>0.03017014787843131</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002410496856968758</v>
+        <v>0.0007781298780658147</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4975704081238401</v>
+        <v>0.1059306909279059</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2642164695275255</v>
+        <v>0.4778636889365941</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.931035631526001</v>
+        <v>0.8509924273456591</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.810531647619996</v>
+        <v>4.905720508427009</v>
       </c>
       <c r="C18">
-        <v>0.2953508686472333</v>
+        <v>0.6813533063548505</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.08320923002115777</v>
+        <v>0.03018429856778582</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002411127456360584</v>
+        <v>0.0007791967961055524</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5003226026930196</v>
+        <v>0.1088078853846959</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2611887576806566</v>
+        <v>0.4661537728076155</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.937675006418687</v>
+        <v>0.8450588167849276</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.797345136284434</v>
+        <v>4.863342969608084</v>
       </c>
       <c r="C19">
-        <v>0.2937273716351285</v>
+        <v>0.6763770629169414</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.08328446916646826</v>
+        <v>0.03019112524472334</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002411342437706798</v>
+        <v>0.0007795591433457471</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5012630292417999</v>
+        <v>0.1098066655429335</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2601653464878808</v>
+        <v>0.4621974330863736</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.939957903111349</v>
+        <v>0.8431621347981491</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.856672827104205</v>
+        <v>5.054164418042944</v>
       </c>
       <c r="C20">
-        <v>0.3010298122596282</v>
+        <v>0.6987808570533502</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08294964182494802</v>
+        <v>0.03016850419171924</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002410380845580079</v>
+        <v>0.0007779329368627724</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4970651168171756</v>
+        <v>0.1054100050419269</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2647776472997663</v>
+        <v>0.4800350129183926</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.929823429335798</v>
+        <v>0.8521446335361986</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.055766673227538</v>
+        <v>5.697624141757785</v>
       </c>
       <c r="C21">
-        <v>0.3255027303941631</v>
+        <v>0.7742586216985501</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08189044049617245</v>
+        <v>0.03023931303780358</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002407252112848638</v>
+        <v>0.0007725433014019178</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.483558993684154</v>
+        <v>0.09242911608308724</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2803935767734771</v>
+        <v>0.5405997098879283</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.898208627576594</v>
+        <v>0.8905539119988504</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.185695540762879</v>
+        <v>6.120232416519059</v>
       </c>
       <c r="C22">
-        <v>0.3414490431171373</v>
+        <v>0.8237737620156054</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08124723842313308</v>
+        <v>0.0304014061090303</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002405283078438344</v>
+        <v>0.000769072683184102</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4751794834043128</v>
+        <v>0.08537799511206678</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.290687859444489</v>
+        <v>0.5807106885453805</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.879369535353533</v>
+        <v>0.9223015249736477</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.116368271896647</v>
+        <v>5.894466425635585</v>
       </c>
       <c r="C23">
-        <v>0.3329427127422377</v>
+        <v>0.7973272924653259</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08158603799594211</v>
+        <v>0.03030387141764557</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002406327075819256</v>
+        <v>0.0007709205079209466</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4796107341222609</v>
+        <v>0.08900370712762218</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2851855527812148</v>
+        <v>0.5592505542851853</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.88925701490507</v>
+        <v>0.9047150121615744</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.853415701679694</v>
+        <v>5.04367748607325</v>
       </c>
       <c r="C24">
-        <v>0.3006290269741783</v>
+        <v>0.6975498623912699</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08296778157041729</v>
+        <v>0.03016920982737226</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002410433266624475</v>
+        <v>0.0007780219526696117</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4972933994337918</v>
+        <v>0.1056449484907915</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2645239119636926</v>
+        <v>0.4790532160158705</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.930370822862386</v>
+        <v>0.8516216489288553</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.569039970460381</v>
+        <v>4.132734004061376</v>
       </c>
       <c r="C25">
-        <v>0.2655779075772671</v>
+        <v>0.5905094008166429</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0846686266161143</v>
+        <v>0.03048078381168473</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002415189821875918</v>
+        <v>0.0007859264606564867</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5182779927988417</v>
+        <v>0.1291312322293727</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2426195155729971</v>
+        <v>0.3944586720120071</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.98249568983141</v>
+        <v>0.8196595471423933</v>
       </c>
     </row>
   </sheetData>
